--- a/ManualTests.xlsx
+++ b/ManualTests.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>An_overview_of_3D_software_visualization</t>
   </si>
@@ -40,12 +41,35 @@
   <si>
     <t>Evaluating_X3D_for_use_in_software_visualization</t>
   </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Vlog(V)</t>
+  </si>
+  <si>
+    <t>V+Vlog(V)</t>
+  </si>
+  <si>
+    <t>log(V)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,16 +95,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -967,4 +995,156 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <f>LOG(B2,2)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <f>B2*LOG(B2,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <f>B2+D2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C8" si="0">LOG(B3,2)</f>
+        <v>3.3219280948873626</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D8" si="1">B3*LOG(B3,2)</f>
+        <v>33.219280948873624</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E8" si="2">B3+D3</f>
+        <v>43.219280948873624</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>100</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6438561897747253</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="1"/>
+        <v>664.38561897747252</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="2"/>
+        <v>764.38561897747252</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>9.965784284662087</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="1"/>
+        <v>9965.7842846620879</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="2"/>
+        <v>10965.784284662088</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>13.287712379549451</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="1"/>
+        <v>132877.1237954945</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="2"/>
+        <v>142877.1237954945</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>16.609640474436812</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="1"/>
+        <v>1660964.0474436812</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="2"/>
+        <v>1760964.0474436812</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>19.931568569324174</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>19931568.569324173</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="2"/>
+        <v>20931568.569324173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>